--- a/tests/bin/OpenRefine_exports/2_DB1_17-18.xlsx
+++ b/tests/bin/OpenRefine_exports/2_DB1_17-18.xlsx
@@ -128,7 +128,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="G2" t="n">
         <v>2636.0</v>
@@ -161,7 +161,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G3" t="n">
         <v>1069.0</v>
@@ -194,7 +194,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G4" t="n">
         <v>2345.0</v>
@@ -227,7 +227,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G5" t="n">
         <v>5861.0</v>
@@ -260,7 +260,7 @@
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G6" t="n">
         <v>3425.0</v>
@@ -293,7 +293,7 @@
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G7" t="n">
         <v>2006.0</v>
@@ -326,7 +326,7 @@
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G8" t="n">
         <v>1769.0</v>
@@ -359,7 +359,7 @@
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G9" t="n">
         <v>3339.0</v>
@@ -392,7 +392,7 @@
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G10" t="n">
         <v>3362.0</v>
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G11" t="n">
         <v>2880.0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G12" t="n">
         <v>1349.0</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G13" t="n">
         <v>2663.0</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="G14" t="n">
         <v>47.0</v>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G15" t="n">
         <v>16.0</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G16" t="n">
         <v>32.0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G17" t="n">
         <v>91.0</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G18" t="n">
         <v>96.0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G19" t="n">
         <v>40.0</v>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G20" t="n">
         <v>55.0</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G21" t="n">
         <v>97.0</v>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G22" t="n">
         <v>102.0</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G23" t="n">
         <v>106.0</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G24" t="n">
         <v>62.0</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G25" t="n">
         <v>25.0</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="G26" t="n">
         <v>94.0</v>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G27" t="n">
         <v>27.0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G28" t="n">
         <v>78.0</v>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G29" t="n">
         <v>63.0</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G30" t="n">
         <v>24.0</v>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G31" t="n">
         <v>38.0</v>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G32" t="n">
         <v>21.0</v>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G33" t="n">
         <v>67.0</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G34" t="n">
         <v>50.0</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G35" t="n">
         <v>61.0</v>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="F36" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G36" t="n">
         <v>24.0</v>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="F37" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G37" t="n">
         <v>12.0</v>
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="F38" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G38" t="n">
         <v>431.0</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="F39" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G39" t="n">
         <v>2348.0</v>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="F40" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G40" t="n">
         <v>5911.0</v>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="F41" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G41" t="n">
         <v>3420.0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="F42" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G42" t="n">
         <v>2046.0</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="F43" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G43" t="n">
         <v>1834.0</v>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="F44" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G44" t="n">
         <v>3341.0</v>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="F45" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G45" t="n">
         <v>3351.0</v>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="F46" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G46" t="n">
         <v>2852.0</v>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="F47" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G47" t="n">
         <v>1338.0</v>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="F48" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G48" t="n">
         <v>2709.0</v>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F49" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G49" t="n">
         <v>30.0</v>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="F50" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G50" t="n">
         <v>71.0</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="F51" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G51" t="n">
         <v>25.0</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F52" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G52" t="n">
         <v>22.0</v>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="F53" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G53" t="n">
         <v>14.0</v>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="F54" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G54" t="n">
         <v>31.0</v>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="F55" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G55" t="n">
         <v>24.0</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="F56" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G56" t="n">
         <v>38.0</v>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="F57" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G57" t="n">
         <v>18.0</v>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="F58" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G58" t="n">
         <v>25.0</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="F59" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G59" t="n">
         <v>9.0</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="F60" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G60" t="n">
         <v>15.0</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="F61" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G61" t="n">
         <v>52.0</v>
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="F62" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G62" t="n">
         <v>19.0</v>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F63" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G63" t="n">
         <v>10.0</v>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F64" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G64" t="n">
         <v>14.0</v>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="F65" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G65" t="n">
         <v>20.0</v>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="F66" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G66" t="n">
         <v>25.0</v>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="F67" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G67" t="n">
         <v>21.0</v>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="F68" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G68" t="n">
         <v>20.0</v>
@@ -2339,7 +2339,7 @@
         </is>
       </c>
       <c r="F69" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G69" t="n">
         <v>15.0</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="F70" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G70" t="n">
         <v>431.0</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="F71" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G71" t="n">
         <v>2348.0</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="F72" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G72" t="n">
         <v>5911.0</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="F73" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G73" t="n">
         <v>3420.0</v>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="F74" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G74" t="n">
         <v>2046.0</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="F75" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G75" t="n">
         <v>1834.0</v>
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="F76" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G76" t="n">
         <v>3341.0</v>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F77" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G77" t="n">
         <v>3351.0</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="F78" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G78" t="n">
         <v>2852.0</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="F79" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G79" t="n">
         <v>1338.0</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F80" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G80" t="n">
         <v>2709.0</v>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="F81" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G81" t="n">
         <v>17.0</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="F82" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G82" t="n">
         <v>20.0</v>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="F83" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G83" t="n">
         <v>16.0</v>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="F84" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G84" t="n">
         <v>13.0</v>
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="F85" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G85" t="n">
         <v>14.0</v>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="F86" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G86" t="n">
         <v>16.0</v>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="F87" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G87" t="n">
         <v>11.0</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="F88" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G88" t="n">
         <v>13.0</v>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="F89" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G89" t="n">
         <v>16.0</v>
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="F90" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G90" t="n">
         <v>13.0</v>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="F91" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G91" t="n">
         <v>19.0</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="F92" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G92" t="n">
         <v>17.0</v>
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F93" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G93" t="n">
         <v>16.0</v>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="F94" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G94" t="n">
         <v>9.0</v>
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="F95" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G95" t="n">
         <v>12.0</v>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="F96" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G96" t="n">
         <v>11.0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="F97" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G97" t="n">
         <v>12.0</v>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="F98" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G98" t="n">
         <v>18.0</v>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="F99" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G99" t="n">
         <v>9.0</v>
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="F100" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G100" t="n">
         <v>10.0</v>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="F101" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G101" t="n">
         <v>431.0</v>
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="F102" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G102" t="n">
         <v>2348.0</v>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="F103" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G103" t="n">
         <v>5911.0</v>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="F104" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G104" t="n">
         <v>3420.0</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="F105" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G105" t="n">
         <v>2046.0</v>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="F106" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G106" t="n">
         <v>1834.0</v>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="F107" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G107" t="n">
         <v>3341.0</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="F108" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G108" t="n">
         <v>3351.0</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="F109" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G109" t="n">
         <v>2852.0</v>
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="F110" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G110" t="n">
         <v>1338.0</v>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="F111" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G111" t="n">
         <v>2709.0</v>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="F112" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G112" t="n">
         <v>10.0</v>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="F113" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G113" t="n">
         <v>17.0</v>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="F114" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G114" t="n">
         <v>50.0</v>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="F115" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G115" t="n">
         <v>12.0</v>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="F116" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G116" t="n">
         <v>34.0</v>
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="F117" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G117" t="n">
         <v>19.0</v>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="F118" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G118" t="n">
         <v>23.0</v>
@@ -3989,7 +3989,7 @@
         </is>
       </c>
       <c r="F119" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G119" t="n">
         <v>27.0</v>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="F120" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G120" t="n">
         <v>20.0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="F121" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G121" t="n">
         <v>12.0</v>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="F122" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G122" t="n">
         <v>19.0</v>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="F123" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G123" t="n">
         <v>11.0</v>
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="F124" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G124" t="n">
         <v>27.0</v>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="F125" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G125" t="n">
         <v>13.0</v>
@@ -4220,7 +4220,7 @@
         </is>
       </c>
       <c r="F126" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G126" t="n">
         <v>16.0</v>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="F127" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G127" t="n">
         <v>9.0</v>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="F128" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G128" t="n">
         <v>11.0</v>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="F129" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G129" t="n">
         <v>17.0</v>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="F130" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G130" t="n">
         <v>13.0</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="F131" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G131" t="n">
         <v>11.0</v>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="F132" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G132" t="n">
         <v>16.0</v>
@@ -4451,7 +4451,7 @@
         </is>
       </c>
       <c r="F133" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="G133" t="n">
         <v>4000.0</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="F134" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G134" t="n">
         <v>1637.0</v>
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="F135" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G135" t="n">
         <v>3850.0</v>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="F136" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G136" t="n">
         <v>7683.0</v>
@@ -4583,7 +4583,7 @@
         </is>
       </c>
       <c r="F137" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G137" t="n">
         <v>4932.0</v>
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="F138" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G138" t="n">
         <v>2746.0</v>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="F139" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G139" t="n">
         <v>3171.0</v>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="F140" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G140" t="n">
         <v>5732.0</v>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="F141" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G141" t="n">
         <v>4819.0</v>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="F142" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G142" t="n">
         <v>4140.0</v>
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="F143" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G143" t="n">
         <v>2295.0</v>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="F144" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G144" t="n">
         <v>3835.0</v>
@@ -4847,7 +4847,7 @@
         </is>
       </c>
       <c r="F145" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="G145" t="n">
         <v>1370.0</v>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="F146" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G146" t="n">
         <v>733.0</v>
@@ -4913,7 +4913,7 @@
         </is>
       </c>
       <c r="F147" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G147" t="n">
         <v>1877.0</v>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="F148" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G148" t="n">
         <v>2616.0</v>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="F149" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G149" t="n">
         <v>1891.0</v>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="F150" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G150" t="n">
         <v>978.0</v>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="F151" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G151" t="n">
         <v>4840.0</v>
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="F152" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G152" t="n">
         <v>1932.0</v>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="F153" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G153" t="n">
         <v>1067.0</v>
@@ -5144,7 +5144,7 @@
         </is>
       </c>
       <c r="F154" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G154" t="n">
         <v>849.0</v>
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="F155" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G155" t="n">
         <v>1134.0</v>
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="F156" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G156" t="n">
         <v>1352.0</v>
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="F157" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="G157" t="n">
         <v>1182.0</v>
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="F158" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="G158" t="n">
         <v>670.0</v>
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="F159" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="G159" t="n">
         <v>1823.0</v>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="F160" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="G160" t="n">
         <v>2896.0</v>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="F161" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="G161" t="n">
         <v>1977.0</v>
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="F162" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="G162" t="n">
         <v>852.0</v>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="F163" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="G163" t="n">
         <v>3966.0</v>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="F164" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="G164" t="n">
         <v>1881.0</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="F165" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="G165" t="n">
         <v>1067.0</v>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="F166" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="G166" t="n">
         <v>835.0</v>
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="F167" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="G167" t="n">
         <v>991.0</v>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="F168" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="G168" t="n">
         <v>1310.0</v>
